--- a/templates/decir_pag_template.xlsx
+++ b/templates/decir_pag_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CBB38E-18E1-415B-9C96-A27BB986D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44C5D-576B-40F1-A59A-3D0F6D30ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BBF11B8-AF28-4ED9-B0D6-95FAFFC4B398}"/>
   </bookViews>
@@ -412,26 +412,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,10 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +495,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +927,8 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -954,932 +950,1140 @@
     <row r="5" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="11"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="11"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="11"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="11"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="11"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="11"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="11"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="11"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="11"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="11"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="11"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="11"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="11"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="11"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="11"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="11"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="11"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="11"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="11"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="11"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="11"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="11"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="11"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="11"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="11"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="11"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="11"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="11"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="11"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="11"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="11"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="11"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="11"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="11"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="11"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="11"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="11"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="11"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="11"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="11"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="11"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="11"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="11"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="11"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="11"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="11"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="11"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="11"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="11"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="11"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="11"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="11"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="11"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="11"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="11"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="11"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="11"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="11"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="11"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="11"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="11"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="11"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="11"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="11"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="11"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="11"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="11"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="11"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="11"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B112" s="15"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="18"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="22"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
     </row>
     <row r="115" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24" t="s">
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="25">
+      <c r="F115" s="17"/>
+      <c r="G115" s="18">
         <f>SUM(G10:G111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
     </row>
     <row r="117" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24" t="s">
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F117" s="24"/>
-      <c r="G117" s="25">
+      <c r="F117" s="17"/>
+      <c r="G117" s="18">
         <f>SUM(G112:G113)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
     </row>
     <row r="119" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="28" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="28"/>
-      <c r="G119" s="29">
+      <c r="F119" s="21"/>
+      <c r="G119" s="22">
         <f>SUM(G115,G117)</f>
         <v>0</v>
       </c>

--- a/templates/decir_pag_template.xlsx
+++ b/templates/decir_pag_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44C5D-576B-40F1-A59A-3D0F6D30ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989A3EE-E54E-421F-9109-F8B0D09F549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BBF11B8-AF28-4ED9-B0D6-95FAFFC4B398}"/>
   </bookViews>
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -407,12 +407,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,6 +523,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -927,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,9 +1001,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
@@ -1001,9 +1009,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
@@ -1011,9 +1017,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
@@ -1021,9 +1025,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
@@ -1031,9 +1033,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
@@ -1041,9 +1041,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
@@ -1051,9 +1049,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -1061,9 +1057,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -1071,9 +1065,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
@@ -1081,9 +1073,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
@@ -1091,9 +1081,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
@@ -1101,9 +1089,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
@@ -1111,9 +1097,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
@@ -1121,9 +1105,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -1131,9 +1113,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
@@ -1141,9 +1121,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
@@ -1151,9 +1129,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
@@ -1161,9 +1137,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
@@ -1171,9 +1145,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
@@ -1181,9 +1153,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
@@ -1191,9 +1161,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
@@ -1201,9 +1169,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
@@ -1211,9 +1177,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
@@ -1221,9 +1185,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
@@ -1231,9 +1193,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1241,9 +1201,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
@@ -1251,9 +1209,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
@@ -1261,9 +1217,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
@@ -1271,9 +1225,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
@@ -1281,9 +1233,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -1291,9 +1241,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
@@ -1301,9 +1249,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
@@ -1311,9 +1257,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
@@ -1321,9 +1265,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
@@ -1331,9 +1273,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
@@ -1341,9 +1281,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -1351,9 +1289,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
@@ -1361,9 +1297,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
@@ -1371,9 +1305,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
@@ -1381,9 +1313,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
@@ -1391,9 +1321,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
@@ -1401,9 +1329,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
@@ -1411,9 +1337,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="23"/>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
@@ -1421,9 +1345,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
@@ -1431,9 +1353,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
@@ -1441,9 +1361,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
@@ -1451,9 +1369,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
@@ -1461,9 +1377,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
@@ -1471,9 +1385,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
@@ -1481,9 +1393,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
@@ -1491,9 +1401,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
@@ -1501,9 +1409,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
@@ -1511,9 +1417,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
@@ -1521,9 +1425,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
@@ -1531,9 +1433,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B65" s="6"/>
@@ -1541,9 +1441,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
@@ -1551,9 +1449,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B67" s="6"/>
@@ -1561,9 +1457,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
@@ -1571,9 +1465,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
@@ -1581,9 +1473,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
@@ -1591,9 +1481,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
@@ -1601,9 +1489,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
@@ -1611,9 +1497,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
@@ -1621,9 +1505,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
@@ -1631,9 +1513,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
@@ -1641,9 +1521,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
@@ -1651,9 +1529,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
@@ -1661,9 +1537,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
@@ -1671,9 +1545,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
@@ -1681,9 +1553,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
@@ -1691,9 +1561,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
@@ -1701,9 +1569,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
@@ -1711,9 +1577,7 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
@@ -1721,9 +1585,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
@@ -1731,9 +1593,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
@@ -1741,9 +1601,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
@@ -1751,9 +1609,7 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="5">
-        <v>0</v>
-      </c>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
@@ -1761,9 +1617,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="5">
-        <v>0</v>
-      </c>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
@@ -1771,9 +1625,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="5">
-        <v>0</v>
-      </c>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
@@ -1781,9 +1633,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B90" s="6"/>
@@ -1791,9 +1641,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B91" s="6"/>
@@ -1801,9 +1649,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B92" s="6"/>
@@ -1811,9 +1657,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B93" s="6"/>
@@ -1821,9 +1665,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B94" s="6"/>
@@ -1831,9 +1673,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="5">
-        <v>0</v>
-      </c>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B95" s="6"/>
@@ -1841,9 +1681,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="5">
-        <v>0</v>
-      </c>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
@@ -1851,9 +1689,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="5">
-        <v>0</v>
-      </c>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B97" s="6"/>
@@ -1861,9 +1697,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
@@ -1871,9 +1705,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="23"/>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B99" s="6"/>
@@ -1881,9 +1713,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="23"/>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B100" s="6"/>
@@ -1891,9 +1721,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="23"/>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B101" s="6"/>
@@ -1901,9 +1729,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="23"/>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B102" s="6"/>
@@ -1911,9 +1737,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="23"/>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B103" s="6"/>
@@ -1921,9 +1745,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="23"/>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
@@ -1931,9 +1753,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="23"/>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B105" s="6"/>
@@ -1941,9 +1761,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="23"/>
-      <c r="G105" s="5">
-        <v>0</v>
-      </c>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B106" s="6"/>
@@ -1951,9 +1769,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="23"/>
-      <c r="G106" s="5">
-        <v>0</v>
-      </c>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B107" s="6"/>
@@ -1961,9 +1777,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="23"/>
-      <c r="G107" s="5">
-        <v>0</v>
-      </c>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B108" s="6"/>
@@ -1971,9 +1785,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="23"/>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B109" s="6"/>
@@ -1981,9 +1793,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="23"/>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B110" s="6"/>
@@ -1991,9 +1801,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="23"/>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B111" s="6"/>
@@ -2001,9 +1809,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="23"/>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
@@ -2011,9 +1817,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="24"/>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B113" s="12"/>
@@ -2021,17 +1825,15 @@
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="25"/>
-      <c r="G113" s="15">
-        <v>0</v>
-      </c>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
     </row>
     <row r="115" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B115" s="16"/>

--- a/templates/decir_pag_template.xlsx
+++ b/templates/decir_pag_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989A3EE-E54E-421F-9109-F8B0D09F549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D21C1D-A3E5-4B53-867E-E0C704E2F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BBF11B8-AF28-4ED9-B0D6-95FAFFC4B398}"/>
   </bookViews>
@@ -51,16 +51,16 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>Soma Efetuados:</t>
-  </si>
-  <si>
-    <t>Soma em Falta:</t>
-  </si>
-  <si>
     <t>SOMA TOTAL:</t>
   </si>
   <si>
     <t>Qtd. Turnos</t>
+  </si>
+  <si>
+    <t>Somatórios de Turnos Efetuados:</t>
+  </si>
+  <si>
+    <t>Somatórios de Turnos em Falta:</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,6 +505,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,7 +524,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -937,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G113"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A97" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -960,20 +966,20 @@
     <row r="5" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -989,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -1828,21 +1834,24 @@
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="F115" s="17"/>
+      <c r="F115" s="33">
+        <f>SUM(F10:F111)</f>
+        <v>0</v>
+      </c>
       <c r="G115" s="18">
         <f>SUM(G10:G111)</f>
         <v>0</v>
@@ -1861,9 +1870,12 @@
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="F117" s="17"/>
+      <c r="F117" s="33">
+        <f>SUM(F112:F113)</f>
+        <v>0</v>
+      </c>
       <c r="G117" s="18">
         <f>SUM(G112:G113)</f>
         <v>0</v>
@@ -1882,9 +1894,12 @@
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="F119" s="21"/>
+      <c r="F119" s="34">
+        <f>SUM(F115,F117)</f>
+        <v>0</v>
+      </c>
       <c r="G119" s="22">
         <f>SUM(G115,G117)</f>
         <v>0</v>
